--- a/로스트아크/데이터테이블/1차완성/Skill_Use_Parameter_Table.xlsx
+++ b/로스트아크/데이터테이블/1차완성/Skill_Use_Parameter_Table.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sky20\Desktop\진선\GameDesign\로스트아크\데이터테이블\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sky20\Desktop\진선\GameDesign\로스트아크\데이터테이블\1차완성\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6511A3E3-86BC-440C-B1CF-C5C4DEC6F00D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A63DA7F6-42B9-49F8-9568-98187A1B0FFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="1" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
   </bookViews>
   <sheets>
     <sheet name="Schema" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="113">
   <si>
     <t>설명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1518,7 +1518,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1720,18 +1720,30 @@
     <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1749,18 +1761,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
@@ -1770,9 +1770,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2096,7 +2093,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF385D5D-99E2-46DF-BA33-B40AE917BBB4}">
   <dimension ref="B1:Q40"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
@@ -2116,11 +2113,11 @@
   <sheetData>
     <row r="1" spans="2:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C2" s="71" t="s">
+      <c r="C2" s="75" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="72"/>
-      <c r="E2" s="73"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="77"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.4">
       <c r="C3" s="10" t="s">
@@ -2257,11 +2254,11 @@
       <c r="Q11" s="3"/>
     </row>
     <row r="12" spans="2:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C12" s="74" t="s">
+      <c r="C12" s="78" t="s">
         <v>83</v>
       </c>
-      <c r="D12" s="75"/>
-      <c r="E12" s="76"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="80"/>
       <c r="F12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
@@ -2281,10 +2278,10 @@
       <c r="D13" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="67" t="s">
+      <c r="E13" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="68"/>
+      <c r="F13" s="74"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -2303,10 +2300,10 @@
       <c r="D14" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="67" t="s">
+      <c r="E14" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="68"/>
+      <c r="F14" s="74"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
@@ -2325,10 +2322,10 @@
       <c r="D15" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="69" t="s">
+      <c r="E15" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="F15" s="70"/>
+      <c r="F15" s="72"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
@@ -2371,10 +2368,10 @@
       <c r="D17" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="69" t="s">
+      <c r="E17" s="71" t="s">
         <v>40</v>
       </c>
-      <c r="F17" s="70"/>
+      <c r="F17" s="72"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
@@ -2441,10 +2438,10 @@
       <c r="D20" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="77" t="s">
+      <c r="E20" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="F20" s="78"/>
+      <c r="F20" s="68"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
@@ -2535,10 +2532,10 @@
       <c r="D24" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="E24" s="79" t="s">
+      <c r="E24" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="F24" s="80"/>
+      <c r="F24" s="70"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
@@ -2629,10 +2626,10 @@
       <c r="D28" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="E28" s="69" t="s">
+      <c r="E28" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="F28" s="70"/>
+      <c r="F28" s="72"/>
     </row>
     <row r="29" spans="3:17" x14ac:dyDescent="0.4">
       <c r="C29" s="42" t="s">
@@ -2683,10 +2680,10 @@
       <c r="D32" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="E32" s="67" t="s">
+      <c r="E32" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="F32" s="68"/>
+      <c r="F32" s="74"/>
     </row>
     <row r="33" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C33" s="38">
@@ -2695,10 +2692,10 @@
       <c r="D33" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="E33" s="69" t="s">
+      <c r="E33" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="F33" s="70"/>
+      <c r="F33" s="72"/>
     </row>
     <row r="34" spans="3:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C34" s="39" t="s">
@@ -2752,17 +2749,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="C12:E12"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2772,10 +2769,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92AA6C23-4463-4E33-A372-1AB2136309A4}">
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection sqref="A1:D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2802,53 +2799,53 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="64" t="s">
-        <v>107</v>
-      </c>
-      <c r="B2" s="65" t="s">
-        <v>107</v>
-      </c>
-      <c r="C2" s="65" t="s">
-        <v>107</v>
-      </c>
-      <c r="D2" s="66" t="s">
-        <v>107</v>
+      <c r="A2" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="6">
+        <v>305000</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="47">
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="48" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B3" s="6">
-        <v>305000</v>
+        <v>305001</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D3" s="47">
-        <v>3</v>
+      <c r="D3" s="47" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="48" t="s">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="B4" s="6">
-        <v>305001</v>
+        <v>305051</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>65</v>
       </c>
       <c r="D4" s="47" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="48" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B5" s="6">
-        <v>305051</v>
+        <v>305061</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>65</v>
@@ -2858,205 +2855,205 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="48" t="s">
-        <v>89</v>
+      <c r="A6" s="81" t="s">
+        <v>90</v>
       </c>
       <c r="B6" s="6">
-        <v>305061</v>
+        <v>305071</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="D6" s="47" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="81" t="s">
-        <v>90</v>
-      </c>
+      <c r="A7" s="82"/>
       <c r="B7" s="6">
         <v>305071</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D7" s="47" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="82"/>
+      <c r="A8" s="83"/>
       <c r="B8" s="6">
         <v>305071</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="84" t="s">
-        <v>108</v>
+        <v>93</v>
+      </c>
+      <c r="D8" s="47" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="83"/>
+      <c r="A9" s="49" t="s">
+        <v>95</v>
+      </c>
       <c r="B9" s="6">
-        <v>305071</v>
+        <v>305081</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="D9" s="47" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="49" t="s">
-        <v>95</v>
+      <c r="A10" s="81" t="s">
+        <v>96</v>
       </c>
       <c r="B10" s="6">
-        <v>305081</v>
+        <v>305111</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D10" s="47" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="81" t="s">
-        <v>96</v>
-      </c>
+      <c r="A11" s="82"/>
       <c r="B11" s="6">
         <v>305111</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D11" s="84" t="s">
-        <v>109</v>
+        <v>67</v>
+      </c>
+      <c r="D11" s="47" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="82"/>
+      <c r="A12" s="83"/>
       <c r="B12" s="6">
         <v>305111</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="D12" s="84" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="47" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="83"/>
+      <c r="A13" s="81" t="s">
+        <v>97</v>
+      </c>
       <c r="B13" s="6">
-        <v>305111</v>
+        <v>305121</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D13" s="84" t="s">
-        <v>80</v>
+        <v>59</v>
+      </c>
+      <c r="D13" s="47" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="81" t="s">
-        <v>97</v>
-      </c>
+      <c r="A14" s="82"/>
       <c r="B14" s="6">
         <v>305121</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D14" s="84" t="s">
-        <v>110</v>
+        <v>67</v>
+      </c>
+      <c r="D14" s="47" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="82"/>
+      <c r="A15" s="83"/>
       <c r="B15" s="6">
         <v>305121</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D15" s="47" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="83"/>
+      <c r="A16" s="81" t="s">
+        <v>98</v>
+      </c>
       <c r="B16" s="6">
-        <v>305121</v>
+        <v>305141</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="D16" s="47" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="81" t="s">
-        <v>98</v>
-      </c>
+      <c r="A17" s="82"/>
       <c r="B17" s="6">
         <v>305141</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="D17" s="47" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="82"/>
+      <c r="A18" s="83"/>
       <c r="B18" s="6">
         <v>305141</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D18" s="47" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="83"/>
+      <c r="A19" s="48" t="s">
+        <v>61</v>
+      </c>
       <c r="B19" s="6">
-        <v>305141</v>
+        <v>305151</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D19" s="47" t="s">
-        <v>80</v>
+        <v>65</v>
+      </c>
+      <c r="D19" s="47">
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="48" t="s">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="B20" s="6">
-        <v>305151</v>
+        <v>305160</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D20" s="47">
-        <v>2</v>
+      <c r="D20" s="47" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="48" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B21" s="6">
-        <v>305160</v>
+        <v>305170</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>65</v>
@@ -3067,10 +3064,10 @@
     </row>
     <row r="22" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="48" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B22" s="6">
-        <v>305170</v>
+        <v>305201</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>65</v>
@@ -3080,222 +3077,211 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="48" t="s">
-        <v>102</v>
+      <c r="A23" s="81" t="s">
+        <v>103</v>
       </c>
       <c r="B23" s="6">
-        <v>305201</v>
+        <v>305211</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D23" s="47" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="81" t="s">
-        <v>103</v>
-      </c>
+      <c r="A24" s="82"/>
       <c r="B24" s="6">
         <v>305211</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D24" s="84" t="s">
-        <v>111</v>
+        <v>67</v>
+      </c>
+      <c r="D24" s="47" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="82"/>
+      <c r="A25" s="83"/>
       <c r="B25" s="6">
         <v>305211</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D25" s="47" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="83"/>
+      <c r="A26" s="81" t="s">
+        <v>104</v>
+      </c>
       <c r="B26" s="6">
-        <v>305211</v>
+        <v>305221</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D26" s="47" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="81" t="s">
-        <v>104</v>
-      </c>
+      <c r="A27" s="82"/>
       <c r="B27" s="6">
         <v>305221</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D27" s="47" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="82"/>
+      <c r="A28" s="83"/>
       <c r="B28" s="6">
         <v>305221</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D28" s="84" t="s">
-        <v>68</v>
+        <v>51</v>
+      </c>
+      <c r="D28" s="47" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="83"/>
+      <c r="A29" s="81" t="s">
+        <v>58</v>
+      </c>
       <c r="B29" s="6">
-        <v>305221</v>
+        <v>305250</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D29" s="84" t="s">
-        <v>112</v>
+        <v>59</v>
+      </c>
+      <c r="D29" s="47" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="81" t="s">
-        <v>58</v>
-      </c>
+      <c r="A30" s="82"/>
       <c r="B30" s="6">
         <v>305250</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="D30" s="47" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="82"/>
+      <c r="A31" s="83"/>
       <c r="B31" s="6">
         <v>305250</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D31" s="47" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="83"/>
+      <c r="A32" s="81" t="s">
+        <v>60</v>
+      </c>
       <c r="B32" s="6">
-        <v>305250</v>
+        <v>305251</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D32" s="47" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="81" t="s">
-        <v>60</v>
-      </c>
+      <c r="A33" s="82"/>
       <c r="B33" s="6">
         <v>305251</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D33" s="47" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="82"/>
+      <c r="A34" s="83"/>
       <c r="B34" s="6">
         <v>305251</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="D34" s="47" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="83"/>
+      <c r="A35" s="81" t="s">
+        <v>54</v>
+      </c>
       <c r="B35" s="6">
-        <v>305251</v>
+        <v>305270</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="D35" s="47" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="81" t="s">
-        <v>54</v>
-      </c>
+      <c r="A36" s="82"/>
       <c r="B36" s="6">
         <v>305270</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="D36" s="47" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="82"/>
+      <c r="A37" s="83"/>
       <c r="B37" s="6">
         <v>305270</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D37" s="47" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="83"/>
-      <c r="B38" s="6">
-        <v>305270</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D38" s="47" t="s">
-        <v>80</v>
+      <c r="A38" s="64" t="s">
+        <v>107</v>
+      </c>
+      <c r="B38" s="65" t="s">
+        <v>107</v>
+      </c>
+      <c r="C38" s="65" t="s">
+        <v>107</v>
+      </c>
+      <c r="D38" s="66" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="64" t="s">
-        <v>107</v>
-      </c>
-      <c r="B39" s="65" t="s">
-        <v>107</v>
-      </c>
-      <c r="C39" s="65" t="s">
-        <v>107</v>
-      </c>
-      <c r="D39" s="66" t="s">
-        <v>107</v>
-      </c>
+      <c r="A39" s="5"/>
     </row>
     <row r="40" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="5"/>
@@ -3306,20 +3292,17 @@
     <row r="42" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
     </row>
-    <row r="43" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="5"/>
-    </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="A26:A28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
